--- a/manuscript/Figures/4_Results/fig_renovation_sens/cop_sens_an.xlsx
+++ b/manuscript/Figures/4_Results/fig_renovation_sens/cop_sens_an.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>2026</v>
       </c>
       <c r="G3" s="5">
-        <v>-379318</v>
+        <v>379318</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>2027</v>
       </c>
       <c r="G4" s="5">
-        <v>-421373</v>
+        <v>421373</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>2028</v>
       </c>
       <c r="G5" s="5">
-        <v>-479467</v>
+        <v>479467</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
